--- a/notCoding/Interview Prep Matrix.xlsx
+++ b/notCoding/Interview Prep Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DaKanWei/Desktop/HoneyBadgerCoding/notCoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2E08B4-2A7E-0A42-9D16-9A64DB5F990F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56209580-6014-314F-8B9D-6D8A20C935DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33300" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="158">
   <si>
     <t>Topic</t>
   </si>
@@ -2269,6 +2269,9 @@
   </si>
   <si>
     <t>Transportation/logistics Company</t>
+  </si>
+  <si>
+    <t>clearning data and perform analysis and reporting</t>
   </si>
 </sst>
 </file>
@@ -3120,7 +3123,7 @@
   <dimension ref="A1:I549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3301,7 +3304,9 @@
       <c r="A8" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="60" t="s">
+        <v>157</v>
+      </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
